--- a/Excel/const@全局常量.xlsx
+++ b/Excel/const@全局常量.xlsx
@@ -27,8 +27,31 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>词条属性被调用时的名字</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>##key</t>
   </si>
@@ -57,16 +80,16 @@
     <t>[[1,200]]</t>
   </si>
   <si>
+    <t>创角初始资源</t>
+  </si>
+  <si>
+    <t>jumpBattleNeedRound</t>
+  </si>
+  <si>
+    <t>int32</t>
+  </si>
+  <si>
     <t>server</t>
-  </si>
-  <si>
-    <t>创角初始资源</t>
-  </si>
-  <si>
-    <t>jumpBattleNeedRound</t>
-  </si>
-  <si>
-    <t>int32</t>
   </si>
   <si>
     <t>跳过战斗需要的回合数</t>
@@ -82,7 +105,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,7 +116,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -241,6 +271,12 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -251,7 +287,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,16 +488,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color theme="0"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color theme="0"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color theme="0"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,133 +617,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -716,11 +752,11 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1075,7 +1111,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:E3"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -1090,23 +1126,23 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="21" customHeight="1" spans="1:5">
+    <row r="2" ht="21" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1116,25 +1152,23 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="B3" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>13</v>
@@ -1144,6 +1178,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Excel/const@全局常量.xlsx
+++ b/Excel/const@全局常量.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17080"/>
+    <workbookView windowWidth="28800" windowHeight="13575"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
     <t>int32</t>
   </si>
   <si>
-    <t>server</t>
+    <t>s</t>
   </si>
   <si>
     <t>跳过战斗需要的回合数</t>
@@ -1111,15 +1111,15 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="22.5454545454545" style="1" customWidth="1"/>
-    <col min="2" max="3" width="17.8727272727273" customWidth="1"/>
-    <col min="4" max="4" width="28.3636363636364" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1818181818182" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5416666666667" style="1" customWidth="1"/>
+    <col min="2" max="3" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="28.3666666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1833333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:6">
@@ -1152,7 +1152,6 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1193,7 +1192,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
